--- a/Assignment 8/BitTable.xlsx
+++ b/Assignment 8/BitTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Google Drive\Introduction To Spacecraft Systems\Assignment 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9687D5C8-261B-41AB-A24F-C1E100A9C4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4F1E64-0D24-4304-824B-2893770AC297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E457E307-11B2-4B5E-BD53-3CEA50793D9F}"/>
+    <workbookView xWindow="-12144" yWindow="6684" windowWidth="23040" windowHeight="12204" xr2:uid="{E457E307-11B2-4B5E-BD53-3CEA50793D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Xk</t>
   </si>
@@ -48,16 +48,31 @@
     <t>Xk-3</t>
   </si>
   <si>
-    <t>yk^1</t>
+    <t>From</t>
   </si>
   <si>
-    <t>yk^2</t>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>yk1</t>
+  </si>
+  <si>
+    <t>yk2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,10 +159,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -464,15 +480,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D513E6-CE8E-4FAB-85F2-8767AE3CFB6C}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -486,13 +505,25 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -506,15 +537,28 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f>MOD(SUM(B4:E4),2)</f>
+        <f t="shared" ref="F4:F19" si="0">MOD(SUM(B4:E4),2)</f>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f>MOD(B4+D4+E4,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <f>MOD(B4+C4+E4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <f>MOD(2*I4,2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -528,15 +572,28 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f>MOD(SUM(B5:E5),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <f>MOD(B5+D5+E5,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G5:G19" si="1">MOD(B5+C5+E5,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <f>MOD(2*I5+1,2^3)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -550,15 +607,28 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <f>MOD(SUM(B6:E6),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <f>MOD(B6+D6+E6,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <f>MOD(2*I6,2^3)</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -572,15 +642,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f>MOD(SUM(B7:E7),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <f>MOD(B7+D7+E7,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <f>MOD(2*I7+1,2^3)</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>0</v>
       </c>
@@ -594,15 +677,28 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <f>MOD(SUM(B8:E8),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <f>MOD(B8+D8+E8,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <f>MOD(2*I8,2^3)</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -616,15 +712,28 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <f>MOD(SUM(B9:E9),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>MOD(B9+D9+E9,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <f>MOD(2*I9+1,2^3)</f>
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -638,15 +747,28 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f>MOD(SUM(B10:E10),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <f>MOD(B10+D10+E10,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <f>MOD(2*I10,2^3)</f>
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -660,15 +782,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <f>MOD(SUM(B11:E11),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <f>MOD(B11+D11+E11,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2">
+        <f>MOD(2*I11+1,2^3)</f>
+        <v>7</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -682,15 +817,28 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f>MOD(SUM(B12:E12),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <f>MOD(B12+D12+E12,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+      <c r="J12" s="2">
+        <f>MOD(2*I12,2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -704,15 +852,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f>MOD(SUM(B13:E13),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <f>MOD(B13+D13+E13,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <f>MOD(2*I13+1,2^3)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -726,15 +887,28 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f>MOD(SUM(B14:E14),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <f>MOD(B14+D14+E14,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2">
+        <f>MOD(2*I14,2^3)</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -748,15 +922,28 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <f>MOD(SUM(B15:E15),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <f>MOD(B15+D15+E15,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2">
+        <f>MOD(2*I15+1,2^3)</f>
+        <v>3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>1</v>
       </c>
@@ -770,15 +957,28 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f>MOD(SUM(B16:E16),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <f>MOD(B16+D16+E16,2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2">
+        <f>MOD(2*I16,2^3)</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -792,15 +992,28 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f>MOD(SUM(B17:E17),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f>MOD(B17+D17+E17,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2">
+        <f>MOD(2*I17+1,2^3)</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>1</v>
       </c>
@@ -814,15 +1027,28 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f>MOD(SUM(B18:E18),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <f>MOD(B18+D18+E18,2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <f>MOD(2*I18,2^3)</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>1</v>
       </c>
@@ -836,15 +1062,376 @@
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <f>MOD(SUM(B19:E19),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <f>MOD(B19+D19+E19,2)</f>
-        <v>1</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7</v>
+      </c>
+      <c r="J19" s="2">
+        <f>MOD(2*I19+1,2^3)</f>
+        <v>7</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <f>MOD(C32+E32,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <f>MOD(D32+C32+E32,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <f>MOD(2*H32,2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ref="F33:F39" si="2">MOD(C33+E33,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ref="G33:G39" si="3">MOD(D33+C33+E33,2)</f>
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <f>MOD(2*H33+1,2^2)</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <f>MOD(2*H34,2^2)</f>
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <f>MOD(2*H35+1,2^2)</f>
+        <v>3</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="2">
+        <f>MOD(2*H36,2^2)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <f>MOD(2*H37+1,2^2)</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2">
+        <f>MOD(2*H38,2^2)</f>
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2">
+        <f>MOD(2*H39+1,2^2)</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment 8/BitTable.xlsx
+++ b/Assignment 8/BitTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Google Drive\Introduction To Spacecraft Systems\Assignment 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4F1E64-0D24-4304-824B-2893770AC297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC37777-1863-4E5A-ACDF-8A895967F771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12144" yWindow="6684" windowWidth="23040" windowHeight="12204" xr2:uid="{E457E307-11B2-4B5E-BD53-3CEA50793D9F}"/>
+    <workbookView xWindow="9396" yWindow="1392" windowWidth="23040" windowHeight="12204" xr2:uid="{E457E307-11B2-4B5E-BD53-3CEA50793D9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Xk</t>
   </si>
@@ -65,13 +65,19 @@
   <si>
     <t>yk2</t>
   </si>
+  <si>
+    <t>Trellis Path</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="00"/>
+    <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -163,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D513E6-CE8E-4FAB-85F2-8767AE3CFB6C}">
-  <dimension ref="B3:L47"/>
+  <dimension ref="A3:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,10 +497,11 @@
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -523,10 +530,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>0</v>
       </c>
@@ -537,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F19" si="0">MOD(SUM(B4:E4),2)</f>
+        <f>MOD(SUM(B4:E4),2)</f>
         <v>0</v>
       </c>
       <c r="G4" s="1">
@@ -558,10 +566,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>0</v>
       </c>
@@ -572,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F19" si="0">MOD(SUM(B5:E5),2)</f>
         <v>1</v>
       </c>
       <c r="G5" s="1">
@@ -593,10 +602,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>0</v>
       </c>
@@ -628,10 +638,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>0</v>
       </c>
@@ -663,10 +674,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>1</v>
       </c>
@@ -698,10 +710,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2">
         <v>1</v>
       </c>
@@ -733,10 +746,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="2">
         <v>1</v>
       </c>
@@ -767,11 +781,18 @@
       <c r="L10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -802,11 +823,18 @@
       <c r="L11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2">
         <v>0</v>
       </c>
@@ -818,11 +846,11 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <v>4</v>
@@ -837,11 +865,18 @@
       <c r="L12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2">
         <v>0</v>
       </c>
@@ -853,11 +888,11 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2">
         <v>4</v>
@@ -872,11 +907,18 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2">
         <v>0</v>
       </c>
@@ -888,11 +930,11 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>5</v>
@@ -907,11 +949,18 @@
       <c r="L14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2">
         <v>0</v>
       </c>
@@ -923,11 +972,11 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
         <v>5</v>
@@ -942,11 +991,18 @@
       <c r="L15" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2">
         <v>1</v>
       </c>
@@ -958,11 +1014,11 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
         <v>6</v>
@@ -977,11 +1033,18 @@
       <c r="L16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="2">
         <v>1</v>
       </c>
@@ -993,11 +1056,11 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <v>6</v>
@@ -1012,11 +1075,18 @@
       <c r="L17" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2">
         <v>1</v>
       </c>
@@ -1028,11 +1098,11 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
         <v>7</v>
@@ -1047,11 +1117,18 @@
       <c r="L18" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2">
         <v>1</v>
       </c>
@@ -1063,11 +1140,11 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>7</v>
@@ -1082,8 +1159,70 @@
       <c r="L19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,8 +1250,38 @@
       <c r="K31" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="O31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2">
         <v>0</v>
@@ -1144,8 +1313,41 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <f>MOD(SUM(O32:R32),2)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <f>MOD(P32+R32,2)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <f>MOD(2*V32,2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2">
         <v>0</v>
@@ -1177,8 +1379,41 @@
       <c r="K33" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" ref="S33:S47" si="4">MOD(SUM(O33:R33),2)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <f>MOD(P33+R33,2)</f>
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <f>MOD(2*V33+1,2^3)</f>
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2">
         <v>0</v>
@@ -1210,8 +1445,41 @@
       <c r="K34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>1</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" ref="T34:T39" si="5">MOD(P34+R34,2)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <f>MOD(2*V34,2^3)</f>
+        <v>2</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2">
         <v>0</v>
@@ -1243,8 +1511,41 @@
       <c r="K35" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>1</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="W35" s="2">
+        <f>MOD(2*V35+1,2^3)</f>
+        <v>3</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2">
         <v>1</v>
@@ -1276,8 +1577,44 @@
       <c r="K36" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
+        <v>2</v>
+      </c>
+      <c r="W36" s="2">
+        <f>MOD(2*V36,2^3)</f>
+        <v>4</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2">
         <v>1</v>
@@ -1309,8 +1646,44 @@
       <c r="K37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>13640</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>2</v>
+      </c>
+      <c r="W37" s="2">
+        <f>MOD(2*V37+1,2^3)</f>
+        <v>5</v>
+      </c>
+      <c r="X37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2">
         <v>1</v>
@@ -1342,8 +1715,41 @@
       <c r="K38" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="O38">
+        <v>6</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>1</v>
+      </c>
+      <c r="R38" s="2">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V38" s="2">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2">
+        <f>MOD(2*V38,2^3)</f>
+        <v>6</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2">
         <v>1</v>
@@ -1375,8 +1781,41 @@
       <c r="K39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>3</v>
+      </c>
+      <c r="W39" s="2">
+        <f>MOD(2*V39+1,2^3)</f>
+        <v>7</v>
+      </c>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1387,48 +1826,192 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="V40" s="2">
+        <v>4</v>
+      </c>
+      <c r="W40" s="2">
+        <f>MOD(2*V40,2^3)</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="V41" s="2">
+        <v>4</v>
+      </c>
+      <c r="W41" s="2">
+        <f>MOD(2*V41+1,2^3)</f>
+        <v>1</v>
+      </c>
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="V42" s="2">
+        <v>5</v>
+      </c>
+      <c r="W42" s="2">
+        <f>MOD(2*V42,2^3)</f>
+        <v>2</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="V43" s="2">
+        <v>5</v>
+      </c>
+      <c r="W43" s="2">
+        <f>MOD(2*V43+1,2^3)</f>
+        <v>3</v>
+      </c>
+      <c r="X43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="V44" s="2">
+        <v>6</v>
+      </c>
+      <c r="W44" s="2">
+        <f>MOD(2*V44,2^3)</f>
+        <v>4</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="V45" s="2">
+        <v>6</v>
+      </c>
+      <c r="W45" s="2">
+        <f>MOD(2*V45+1,2^3)</f>
+        <v>5</v>
+      </c>
+      <c r="X45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="V46" s="2">
+        <v>7</v>
+      </c>
+      <c r="W46" s="2">
+        <f>MOD(2*V46,2^3)</f>
+        <v>6</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="3"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="V47" s="2">
+        <v>7</v>
+      </c>
+      <c r="W47" s="2">
+        <f>MOD(2*V47+1,2^3)</f>
+        <v>7</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
